--- a/StatusCode_applicationCount_09Dec24.xlsx
+++ b/StatusCode_applicationCount_09Dec24.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="42">
   <si>
     <t>StatusCode</t>
   </si>
@@ -96,6 +97,60 @@
   </si>
   <si>
     <t>Application Count</t>
+  </si>
+  <si>
+    <t>fia_ex5_3</t>
+  </si>
+  <si>
+    <t>fia_ex5_4</t>
+  </si>
+  <si>
+    <t>fia_ex5_5</t>
+  </si>
+  <si>
+    <t>fia_ex5_74</t>
+  </si>
+  <si>
+    <t>fia_ex5_75</t>
+  </si>
+  <si>
+    <t>fia_ex5_76</t>
+  </si>
+  <si>
+    <t>LastModifiedOn</t>
+  </si>
+  <si>
+    <t>DOSRIFLG</t>
+  </si>
+  <si>
+    <t>AUTOOB</t>
+  </si>
+  <si>
+    <t>amtfin</t>
+  </si>
+  <si>
+    <t>PDAlevel</t>
+  </si>
+  <si>
+    <t>RCO</t>
+  </si>
+  <si>
+    <t>SRCO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -152,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -639,4 +695,1315 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45635.383217592593</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>1316000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45635.37964082176</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>1316000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45635.374939386573</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1316000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45635.366896643522</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1316000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45635.36679915509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>1316000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45635.366741898149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>1316000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45635.345331168981</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>1316000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45635.343961192128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>1316000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45635.343624502311</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>1316000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45635.342451307872</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>1316000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45635.338730671298</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12">
+        <v>1316000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45635.324081365739</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>1316000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45635.323987812502</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>1316000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45635.323971909726</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>1316000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45635.302755474535</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>1316000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45635.299650034722</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>1316000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45635.279630405093</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>1316000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45635.279404363428</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>1316000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45635.27330552083</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>1316000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45635.267257951389</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>1316000</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45635.266876006943</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>1316000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45635.266082291666</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>1316000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45635.264953622682</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24">
+        <v>1316000</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45635.259324108796</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>1316000</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45635.248531631943</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26">
+        <v>1316000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45635.24833159722</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27">
+        <v>1316000</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45635.247978622683</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>1316000</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45635.247060613423</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>1316000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45635.237496724534</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>1316000</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45635.236610381944</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>1316000</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45635.232259293982</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32">
+        <v>1316000</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45635.222787766201</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33">
+        <v>1316000</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45635.221647835649</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>